--- a/biology/Botanique/Double_fécondation/Double_fécondation.xlsx
+++ b/biology/Botanique/Double_fécondation/Double_fécondation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Double_f%C3%A9condation</t>
+          <t>Double_fécondation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la double fécondation (ou xénie) est une fonction particulière à la reproduction des angiospermes. Le grain de pollen contient deux noyaux, tous deux haploïdes (n chromosome), alors que par exemple le spermatozoïde des mammifères ne contient qu'un seul noyau. Un de ces noyaux est destiné à féconder l'oosphère, ce qui donnera l’embryon, à l’origine de la future plante. Le deuxième s'unit aux noyaux polaires à l'origine de l'albumen, tissu alors triploïde (3n chromosomes) qui fait partie de la graine et qui servira généralement à nourrir l'embryon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Double_f%C3%A9condation</t>
+          <t>Double_fécondation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">[flash]La double fécondation chez les angiospermes avec l'exemple d'une fleur de cerisier. (animation flash).
  Portail de la botanique                     </t>
